--- a/results/results_formatted/evaluation_freeRoaming_run4_formatted.xlsx
+++ b/results/results_formatted/evaluation_freeRoaming_run4_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Desktop\bro usb n papa\results (free roaming)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (free roaming)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2454BCF2-182E-4091-AC67-8D363AE356D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_freeRoaming_run4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,30 +948,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -961,7 +1012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1044,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1085,7 @@
         <v>78.56</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1126,7 @@
         <v>67.52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1167,7 @@
         <v>60.88</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1208,7 @@
         <v>52.47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1249,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1290,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1331,7 @@
         <v>65.86</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1321,7 +1372,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1362,7 +1413,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1445,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1486,7 @@
         <v>55.37</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1476,7 +1527,7 @@
         <v>33.270000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1568,7 @@
         <v>31.97</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1558,7 +1609,7 @@
         <v>39.380000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1650,7 @@
         <v>23.47</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1691,7 @@
         <v>65.150000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +1732,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1722,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +1814,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +1855,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1887,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1919,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +1951,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1973,7 +2024,7 @@
         <v>38.54</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2056,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2097,7 @@
         <v>68.94</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2087,7 +2138,7 @@
         <v>65.75</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2128,7 +2179,7 @@
         <v>63.65</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -2210,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2302,7 @@
         <v>63.17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2343,7 @@
         <v>67.42</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2375,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2407,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2397,7 +2448,7 @@
         <v>25.54</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2489,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2479,7 +2530,7 @@
         <v>35.950000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2571,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,7 +2603,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -2593,7 +2644,7 @@
         <v>72.680000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -2634,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +2726,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -2716,7 +2767,7 @@
         <v>58.27</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -2757,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2840,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2872,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -2862,7 +2913,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -2903,7 +2954,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -2944,7 +2995,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -2985,7 +3036,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -3026,7 +3077,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -3067,7 +3118,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -3078,7 +3129,7 @@
         <v>236.16</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -3089,7 +3140,7 @@
         <v>76.91</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -3100,7 +3151,7 @@
         <v>165.61</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -3111,7 +3162,7 @@
         <v>188.81</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -3122,7 +3173,7 @@
         <v>69.23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -3133,7 +3184,7 @@
         <v>148.83000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -3144,7 +3195,7 @@
         <v>188.92</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -3153,6 +3204,54 @@
       </c>
       <c r="C63">
         <v>196.08</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="3">
+        <f>COUNTIF(A2:A55,"transportation")</f>
+        <v>42</v>
+      </c>
+      <c r="G68" s="3">
+        <f>AVERAGEIF(A2:A55,"transportation",F2:F55)</f>
+        <v>124.50357142857145</v>
+      </c>
+      <c r="H68" s="3">
+        <f>AVERAGEIF(A2:A55,"transportation",H2:H55)</f>
+        <v>53.694999999999993</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="3">
+        <f>COUNTIF(A2:A55,"charging")</f>
+        <v>12</v>
+      </c>
+      <c r="G69" s="3">
+        <f>AVERAGEIF(A2:A55,"charging",F2:F55)</f>
+        <v>39.361666666666672</v>
+      </c>
+      <c r="H69" s="3">
+        <f>AVERAGEIF(A2:A55,"charging",H2:H55)</f>
+        <v>0.28999999999999998</v>
       </c>
     </row>
   </sheetData>
